--- a/Other/Config/Excel/GamePlay.xlsx
+++ b/Other/Config/Excel/GamePlay.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">关卡名</t>
   </si>
   <si>
-    <t xml:space="preserve">GamePlayPrefab</t>
+    <t xml:space="preserve">Prefab路径</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -473,7 +473,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>

--- a/Other/Config/Excel/GamePlay.xlsx
+++ b/Other/Config/Excel/GamePlay.xlsx
@@ -1,133 +1,281 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="27945" windowHeight="12525" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关卡名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefab路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlayName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlayTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlays/GamePlayTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlayTestLiHuo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlays/GamePlayTestLiHuo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>关卡名</t>
+  </si>
+  <si>
+    <t>Prefab路径</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>GamePlayName</t>
+  </si>
+  <si>
+    <t>Prefab</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>GamePlayTemp</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayTemp</t>
+  </si>
+  <si>
+    <t>GamePlayTestLiHuo</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayTestLiHuo</t>
+  </si>
+  <si>
+    <t>GamePlayRooftop</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayRooftop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Microsoft JhengHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF0000FF"/>
       <name val="NSimSun"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF0000FF"/>
       <name val="NSimSun"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,16 +288,202 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.35"/>
       </left>
@@ -164,187 +498,654 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA6A6A6"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FBE5D6"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00A6A6A6"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,7 +1172,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -395,7 +1196,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -455,37 +1256,36 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:XFD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.05"/>
+    <col min="1" max="1" width="6.95" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="11.05" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16384">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,7 +1297,7 @@
       </c>
       <c r="XFD1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16384">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -509,13 +1309,13 @@
       </c>
       <c r="XFD2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16384">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="XFD3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16384">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -527,7 +1327,7 @@
       </c>
       <c r="XFD4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="15" spans="1:16384">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -539,8 +1339,8 @@
       </c>
       <c r="XFD5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>10001</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -550,8 +1350,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>10002</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -561,13 +1361,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Other/Config/Excel/GamePlay.xlsx
+++ b/Other/Config/Excel/GamePlay.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>GamePlays/GamePlayRooftop</t>
+  </si>
+  <si>
+    <t>GamePlayLiHuoRoom</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayLiHuoRoom</t>
   </si>
 </sst>
 </file>
@@ -1268,15 +1274,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:XFD9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.95" style="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
@@ -1354,7 +1360,7 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1365,11 +1371,22 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/GamePlay.xlsx
+++ b/Other/Config/Excel/GamePlay.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>GamePlays/GamePlayLiHuoRoom</t>
+  </si>
+  <si>
+    <t>GamePlayApartment</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayApartment</t>
   </si>
 </sst>
 </file>
@@ -1274,12 +1280,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25"/>
@@ -1389,6 +1395,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Other/Config/Excel/GamePlay.xlsx
+++ b/Other/Config/Excel/GamePlay.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>GamePlays/GamePlayRooftop</t>
+  </si>
+  <si>
+    <t>GamePlayLiHuoRoom</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayLiHuoRoom</t>
+  </si>
+  <si>
+    <t>GamePlayApartment</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayApartment</t>
   </si>
 </sst>
 </file>
@@ -1268,15 +1280,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.95" style="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
@@ -1354,7 +1366,7 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1365,11 +1377,33 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/GamePlay.xlsx
+++ b/Other/Config/Excel/GamePlay.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>GamePlays/GamePlayApartment</t>
+  </si>
+  <si>
+    <t>GamePlayApartmentPassage</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayApartmentPassage</t>
+  </si>
+  <si>
+    <t>GamePlayApartmentReception</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayApartmentReception</t>
+  </si>
+  <si>
+    <t>GamePlayApartmentBalcony</t>
+  </si>
+  <si>
+    <t>GamePlays/GamePlayApartmentBalcony</t>
   </si>
 </sst>
 </file>
@@ -1095,13 +1113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1280,12 +1291,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25"/>
@@ -1406,6 +1417,39 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
